--- a/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/StructureDefinition-jp-condition.xlsx
@@ -3108,7 +3108,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
